--- a/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023 (tasa de respuesta: 99,76%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>106681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81592</v>
+        <v>81719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>135351</v>
+        <v>135556</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2616062653332861</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2000814558231287</v>
+        <v>0.2003934815926331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3319113858345139</v>
+        <v>0.3324139213058979</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>33942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21380</v>
+        <v>21363</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52564</v>
+        <v>49734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09363135009173072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05897684114179845</v>
+        <v>0.05893044635677547</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1449980362222371</v>
+        <v>0.1371927785249804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -783,19 +783,19 @@
         <v>140624</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>111157</v>
+        <v>113972</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174947</v>
+        <v>176089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1825558693281258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1443031168608848</v>
+        <v>0.147956462272127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2271136523599974</v>
+        <v>0.2285959016186943</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>127961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98379</v>
+        <v>99374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160724</v>
+        <v>157363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3137891914672136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2412484838406953</v>
+        <v>0.243686172722658</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3941301413314719</v>
+        <v>0.3858898186589716</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -833,19 +833,19 @@
         <v>45753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30437</v>
+        <v>30751</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64952</v>
+        <v>65122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1262114759474509</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08396181173519777</v>
+        <v>0.08482870225822821</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1791718054348559</v>
+        <v>0.1796419850103395</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -854,19 +854,19 @@
         <v>173714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142039</v>
+        <v>138400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>208371</v>
+        <v>208631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2255135541659112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.184392957793465</v>
+        <v>0.179669679999037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2705051810414712</v>
+        <v>0.2708415639555587</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>116551</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>90080</v>
+        <v>88578</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>147511</v>
+        <v>147325</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2858103680962878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2208952656184734</v>
+        <v>0.2172119738470412</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3617299996460405</v>
+        <v>0.361274305122485</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>86</v>
@@ -904,19 +904,19 @@
         <v>150437</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>125026</v>
+        <v>125802</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>175832</v>
+        <v>175994</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4149845895168594</v>
+        <v>0.4149845895168595</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3448882950370192</v>
+        <v>0.3470295190757893</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4850364351705531</v>
+        <v>0.4854854907866363</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>131</v>
@@ -925,19 +925,19 @@
         <v>266988</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>228646</v>
+        <v>231645</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>308180</v>
+        <v>309088</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3466008339957359</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2968249892328148</v>
+        <v>0.3007191479903674</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4000755019080536</v>
+        <v>0.40125359246534</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>18941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7536</v>
+        <v>7346</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44909</v>
+        <v>44452</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04644821140358836</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01847988719368667</v>
+        <v>0.0180140589026566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1101276517761511</v>
+        <v>0.1090064630949388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -975,19 +975,19 @@
         <v>65867</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45957</v>
+        <v>46714</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88257</v>
+        <v>87697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1816964531463789</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1267747946751404</v>
+        <v>0.1288619389994693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.243460699073791</v>
+        <v>0.2419148271459758</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -996,19 +996,19 @@
         <v>84808</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60337</v>
+        <v>61777</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110197</v>
+        <v>117610</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1100971619233401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07832837110208447</v>
+        <v>0.08019805277900291</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.143055716878975</v>
+        <v>0.1526794061097791</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>37658</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22549</v>
+        <v>21128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60975</v>
+        <v>57868</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09234596369962432</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05529610356984837</v>
+        <v>0.05181098782947918</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1495247713796426</v>
+        <v>0.1419046216506949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -1046,19 +1046,19 @@
         <v>66512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48364</v>
+        <v>47839</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90503</v>
+        <v>89867</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1834761312975799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1334122759833278</v>
+        <v>0.1319640001486787</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.249655747274652</v>
+        <v>0.2479000649815018</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -1067,19 +1067,19 @@
         <v>104170</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>78141</v>
+        <v>79719</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133108</v>
+        <v>135410</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1352325805868871</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1014422558839465</v>
+        <v>0.1034898675051872</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1727991872013028</v>
+        <v>0.1757875268236463</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>91912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70146</v>
+        <v>71421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115354</v>
+        <v>114348</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1932604708602162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1474942664583914</v>
+        <v>0.1501746006233213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2425521930031189</v>
+        <v>0.2404358660585337</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1192,19 +1192,19 @@
         <v>44046</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31675</v>
+        <v>31506</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58799</v>
+        <v>60037</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08790236551811925</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0632133685942327</v>
+        <v>0.06287500792038359</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1173448100321873</v>
+        <v>0.1198148492036553</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -1213,19 +1213,19 @@
         <v>135958</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113003</v>
+        <v>108869</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165376</v>
+        <v>163955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1392061463550673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1157029470042552</v>
+        <v>0.111470136822951</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1693263635735037</v>
+        <v>0.1678720189462663</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>69907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52768</v>
+        <v>51747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94118</v>
+        <v>93098</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.146992144098219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1109547174087525</v>
+        <v>0.1088071479396943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1978992535209544</v>
+        <v>0.195754535204988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -1263,19 +1263,19 @@
         <v>49546</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35851</v>
+        <v>36232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63652</v>
+        <v>66629</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09887729893469829</v>
+        <v>0.09887729893469827</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07154768455208844</v>
+        <v>0.07230834854700953</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1270279251551337</v>
+        <v>0.1329700886839653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>84</v>
@@ -1284,19 +1284,19 @@
         <v>119453</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>94012</v>
+        <v>95934</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>144641</v>
+        <v>146532</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1223066636072865</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0962577018285545</v>
+        <v>0.09822545846738</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1480957724307782</v>
+        <v>0.1500320787019612</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>154949</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>128915</v>
+        <v>128947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>179850</v>
+        <v>181114</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3258064417007278</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2710668127997491</v>
+        <v>0.2711333209119463</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3781648047374962</v>
+        <v>0.3808232128849398</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>206</v>
@@ -1334,19 +1334,19 @@
         <v>216863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>192993</v>
+        <v>193439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>240161</v>
+        <v>242638</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4327885356920878</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3851526831372352</v>
+        <v>0.3860417459866169</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4792829861520713</v>
+        <v>0.4842281539067025</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>307</v>
@@ -1355,19 +1355,19 @@
         <v>371812</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>335311</v>
+        <v>336963</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>404973</v>
+        <v>412442</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3806939589550715</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3433214759733869</v>
+        <v>0.3450124464659368</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4146472729620802</v>
+        <v>0.4222946350986843</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>82891</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63699</v>
+        <v>63759</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106967</v>
+        <v>106700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.174292697001472</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1339385341810609</v>
+        <v>0.1340638255160262</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2249170653749979</v>
+        <v>0.2243544635920995</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1405,19 +1405,19 @@
         <v>72763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56053</v>
+        <v>57719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92475</v>
+        <v>90865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1452109036408537</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1118642467179411</v>
+        <v>0.1151879697299782</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.184550251722717</v>
+        <v>0.1813367591108091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -1426,19 +1426,19 @@
         <v>155654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129034</v>
+        <v>129843</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183379</v>
+        <v>185053</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1593721867056359</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1321159675262414</v>
+        <v>0.1329445455813688</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1877595669338576</v>
+        <v>0.1894733779701706</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>75926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58208</v>
+        <v>57567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97596</v>
+        <v>98831</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.159648246339365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1223932505252576</v>
+        <v>0.1210443183414745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2052134855824239</v>
+        <v>0.2078091430208023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -1476,19 +1476,19 @@
         <v>117865</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>98186</v>
+        <v>97729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137262</v>
+        <v>139211</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.235220896214241</v>
+        <v>0.2352208962142411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1959474878018702</v>
+        <v>0.1950365168360993</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2739309116164577</v>
+        <v>0.2778211114267683</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>159</v>
@@ -1497,19 +1497,19 @@
         <v>193792</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>165505</v>
+        <v>167050</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222509</v>
+        <v>225215</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1984210443769388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1694581491991797</v>
+        <v>0.1710400571225097</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2278243163206757</v>
+        <v>0.2305954320984744</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>83308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67230</v>
+        <v>68594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104552</v>
+        <v>105269</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1347436696681325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1087386290228509</v>
+        <v>0.1109445142056387</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1691038296386791</v>
+        <v>0.1702635051754157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -1622,19 +1622,19 @@
         <v>48868</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37331</v>
+        <v>37773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60796</v>
+        <v>60728</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07883641059965241</v>
+        <v>0.07883641059965245</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06022461035742925</v>
+        <v>0.06093702197524772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09807828814805257</v>
+        <v>0.09796938733266436</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>134</v>
@@ -1643,19 +1643,19 @@
         <v>132176</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112437</v>
+        <v>111398</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154576</v>
+        <v>154977</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1067540258796578</v>
+        <v>0.1067540258796577</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09081092382460537</v>
+        <v>0.08997178450759741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1248449925983912</v>
+        <v>0.1251690858973066</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>95729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78591</v>
+        <v>78045</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115861</v>
+        <v>114476</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1548327858197844</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1271133843484053</v>
+        <v>0.1262305201880701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1873940663407178</v>
+        <v>0.185153830655386</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -1693,19 +1693,19 @@
         <v>38889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29630</v>
+        <v>29257</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49494</v>
+        <v>50474</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0627378538526574</v>
+        <v>0.06273785385265741</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04780072629117692</v>
+        <v>0.04719856116302855</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07984525561291007</v>
+        <v>0.08142711987792303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>136</v>
@@ -1714,19 +1714,19 @@
         <v>134618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113765</v>
+        <v>112355</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>157114</v>
+        <v>157928</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1087259942611729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09188366937832627</v>
+        <v>0.09074475270382398</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1268952594561349</v>
+        <v>0.1275526484125109</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>219913</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>195077</v>
+        <v>194489</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>244819</v>
+        <v>243347</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3556885554017419</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3155189949948298</v>
+        <v>0.3145679559084619</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.395973106854041</v>
+        <v>0.3935919872667847</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>400</v>
@@ -1764,19 +1764,19 @@
         <v>286394</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>265512</v>
+        <v>264693</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>307371</v>
+        <v>306801</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4620243262264117</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4283368653427463</v>
+        <v>0.4270156526827529</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4958644856561696</v>
+        <v>0.4949455904366877</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>600</v>
@@ -1785,19 +1785,19 @@
         <v>506306</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>474623</v>
+        <v>475929</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>537974</v>
+        <v>541239</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4089249400313257</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3833356622526559</v>
+        <v>0.3843905126001996</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4345017534774022</v>
+        <v>0.4371389371459067</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>88550</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68692</v>
+        <v>70820</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>106841</v>
+        <v>109322</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.143221351717063</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1111026169750595</v>
+        <v>0.1145456237611405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1728053593847729</v>
+        <v>0.1768183215108573</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>125</v>
@@ -1835,19 +1835,19 @@
         <v>93932</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79667</v>
+        <v>78807</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109876</v>
+        <v>111511</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1515358188012006</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1285217784020696</v>
+        <v>0.1271350085907574</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1772571799935234</v>
+        <v>0.1798942760318191</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>200</v>
@@ -1856,19 +1856,19 @@
         <v>182482</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>158552</v>
+        <v>157887</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>206553</v>
+        <v>208367</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1473839412600588</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1280566452576875</v>
+        <v>0.1275198804432506</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.166825428299068</v>
+        <v>0.168290657741026</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>130773</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108867</v>
+        <v>109383</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153031</v>
+        <v>152538</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2115136373932782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1760828329307626</v>
+        <v>0.1769168342705877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2475136092244364</v>
+        <v>0.2467155641012833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>202</v>
@@ -1906,19 +1906,19 @@
         <v>151784</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>133469</v>
+        <v>133980</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>169328</v>
+        <v>169053</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2448655905200779</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2153187048531372</v>
+        <v>0.2161430211706692</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2731674158485511</v>
+        <v>0.2727243235096383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>317</v>
@@ -1927,19 +1927,19 @@
         <v>282557</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>254780</v>
+        <v>257163</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>309634</v>
+        <v>313396</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2282110985677848</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2057767890758761</v>
+        <v>0.2077007933336811</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2500803540889434</v>
+        <v>0.2531184348972711</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>76589</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61467</v>
+        <v>60826</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96182</v>
+        <v>95859</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1094930747268422</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08787421169154021</v>
+        <v>0.08695770656966244</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1375033699322126</v>
+        <v>0.1370409735760937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -2052,19 +2052,19 @@
         <v>54662</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43909</v>
+        <v>43084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67386</v>
+        <v>66867</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07425830738649623</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05965012382605354</v>
+        <v>0.05852957010675316</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09154437531217011</v>
+        <v>0.09083805079410232</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -2073,19 +2073,19 @@
         <v>131251</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110627</v>
+        <v>112618</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151517</v>
+        <v>152290</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09142631049543903</v>
+        <v>0.09142631049543905</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07706005391604484</v>
+        <v>0.07844653302364354</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1055426606912267</v>
+        <v>0.1060813782351622</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>78294</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61549</v>
+        <v>62972</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96904</v>
+        <v>99672</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1119311187357112</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08799146360560213</v>
+        <v>0.09002642424392432</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1385356898790061</v>
+        <v>0.1424925004172239</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>69</v>
@@ -2123,19 +2123,19 @@
         <v>47124</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36987</v>
+        <v>37383</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>59010</v>
+        <v>58456</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06401812073370726</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05024718918141607</v>
+        <v>0.05078451086921856</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08016508196747869</v>
+        <v>0.07941280165029625</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>138</v>
@@ -2144,19 +2144,19 @@
         <v>125419</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>106427</v>
+        <v>108052</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>148646</v>
+        <v>151008</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08736354233708137</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0741345565140107</v>
+        <v>0.07526615743054527</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1035434044370756</v>
+        <v>0.1051882131040938</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>295688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>270980</v>
+        <v>269084</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>323777</v>
+        <v>321405</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4227210906159108</v>
+        <v>0.4227210906159107</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3873969437550657</v>
+        <v>0.3846871539491094</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4628770864952031</v>
+        <v>0.4594859923061703</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>594</v>
@@ -2194,19 +2194,19 @@
         <v>376005</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>355874</v>
+        <v>354852</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>396957</v>
+        <v>396060</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5108024098416266</v>
+        <v>0.5108024098416265</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4834536232130736</v>
+        <v>0.4820657174441645</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5392648257016682</v>
+        <v>0.5380473720098831</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>885</v>
@@ -2215,19 +2215,19 @@
         <v>671694</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>636428</v>
+        <v>638357</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>708578</v>
+        <v>706131</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4678851302211837</v>
+        <v>0.4678851302211839</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4433196862084569</v>
+        <v>0.4446633232615716</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4935779232649145</v>
+        <v>0.4918727718279052</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>131841</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>111224</v>
+        <v>111147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>153106</v>
+        <v>154201</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1884820630551564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1590083410088668</v>
+        <v>0.1588973117390095</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2188833630984434</v>
+        <v>0.2204488208998814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>179</v>
@@ -2265,19 +2265,19 @@
         <v>117744</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101322</v>
+        <v>102803</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133294</v>
+        <v>134711</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1599543843289425</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1376457431963944</v>
+        <v>0.1396582507628619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1810796715801705</v>
+        <v>0.18300499332252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>299</v>
@@ -2286,19 +2286,19 @@
         <v>249585</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>225152</v>
+        <v>221446</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>277709</v>
+        <v>273992</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1738543846420353</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1568352106879725</v>
+        <v>0.1542533869736958</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1934452435643211</v>
+        <v>0.1908556733322272</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>117075</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>98205</v>
+        <v>99159</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>140312</v>
+        <v>138293</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1673726528663793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1403961682621417</v>
+        <v>0.1417598800627991</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2005927786281483</v>
+        <v>0.1977058914309061</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>217</v>
@@ -2336,19 +2336,19 @@
         <v>140572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>122262</v>
+        <v>124563</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>157068</v>
+        <v>156743</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1909667777092275</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1660926131964337</v>
+        <v>0.1692186925808582</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2133759986648777</v>
+        <v>0.2129349019048451</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>330</v>
@@ -2357,19 +2357,19 @@
         <v>257647</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>230011</v>
+        <v>230551</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>284251</v>
+        <v>285523</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1794706323042604</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1602196663466023</v>
+        <v>0.1605960510895515</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1980018359109461</v>
+        <v>0.1988878881130746</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>35320</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25025</v>
+        <v>24871</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47913</v>
+        <v>46926</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.0581444863915931</v>
+        <v>0.05814448639159311</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04119624594449327</v>
+        <v>0.04094278568542885</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07887595044329689</v>
+        <v>0.07725059962244626</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>72</v>
@@ -2482,19 +2482,19 @@
         <v>46037</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>36375</v>
+        <v>36304</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56093</v>
+        <v>57014</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07605651126983823</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06009544219628649</v>
+        <v>0.05997732338919924</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09267093865269456</v>
+        <v>0.09419154787483208</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>111</v>
@@ -2503,19 +2503,19 @@
         <v>81357</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68263</v>
+        <v>67202</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>97860</v>
+        <v>98069</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06708454847378748</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05628812742155313</v>
+        <v>0.05541263181074987</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08069263794727179</v>
+        <v>0.08086479880666499</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>45935</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34662</v>
+        <v>34745</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58310</v>
+        <v>58685</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07561911837445622</v>
+        <v>0.07561911837445623</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05706058959702029</v>
+        <v>0.05719860589735749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09599110426889078</v>
+        <v>0.09660804454868986</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>39</v>
@@ -2553,19 +2553,19 @@
         <v>24735</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18027</v>
+        <v>18263</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33456</v>
+        <v>33755</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04086420684132683</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02978262841924639</v>
+        <v>0.03017203114275104</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05527241962866524</v>
+        <v>0.05576701662157833</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>88</v>
@@ -2574,19 +2574,19 @@
         <v>70670</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>57541</v>
+        <v>57685</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>86998</v>
+        <v>86942</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0582726112721397</v>
+        <v>0.05827261127213969</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.047446893728708</v>
+        <v>0.0475655380395008</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07173604196888644</v>
+        <v>0.07168978871947376</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>286251</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>262811</v>
+        <v>263418</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>308487</v>
+        <v>307602</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.471230807929637</v>
+        <v>0.4712308079296372</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4326436457491417</v>
+        <v>0.4336433678343234</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5078374783301863</v>
+        <v>0.5063799191946619</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>522</v>
@@ -2624,19 +2624,19 @@
         <v>307871</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>290754</v>
+        <v>288396</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>326335</v>
+        <v>327179</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.5086312933951563</v>
+        <v>0.5086312933951562</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4803520479527318</v>
+        <v>0.4764559638316533</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5391339947655107</v>
+        <v>0.5405290154100396</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>841</v>
@@ -2645,19 +2645,19 @@
         <v>594122</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>562576</v>
+        <v>566079</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>624743</v>
+        <v>625363</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4898977461590522</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4638857505294058</v>
+        <v>0.4667738988045342</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5151472910980847</v>
+        <v>0.5156584002165421</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>141888</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>121908</v>
+        <v>123496</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>164355</v>
+        <v>164647</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2335783085965749</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2006875407181812</v>
+        <v>0.2033019616942612</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.270564097264676</v>
+        <v>0.2710446694280496</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>232</v>
@@ -2695,19 +2695,19 @@
         <v>144936</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>129496</v>
+        <v>128685</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>161155</v>
+        <v>161562</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2394480516603628</v>
+        <v>0.2394480516603627</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2139395057354163</v>
+        <v>0.2125998084217017</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2662420918278215</v>
+        <v>0.2669150916914448</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>379</v>
@@ -2716,19 +2716,19 @@
         <v>286824</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>262196</v>
+        <v>261692</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>315894</v>
+        <v>311611</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2365079532209818</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2161998735150057</v>
+        <v>0.2157842245613527</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2604780317614867</v>
+        <v>0.2569463901208231</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>98059</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>81540</v>
+        <v>81898</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>116332</v>
+        <v>117469</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1614272787077388</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1342327725815735</v>
+        <v>0.1348223045849331</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1915083733131581</v>
+        <v>0.1933790937118979</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>132</v>
@@ -2766,19 +2766,19 @@
         <v>81715</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>68624</v>
+        <v>68316</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94796</v>
+        <v>94158</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.134999936833316</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1133731621147067</v>
+        <v>0.1128638284223585</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1566111393071293</v>
+        <v>0.1555578769861395</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>239</v>
@@ -2787,19 +2787,19 @@
         <v>179774</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>159140</v>
+        <v>158998</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>202579</v>
+        <v>202901</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1482371408740389</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1312226779968004</v>
+        <v>0.1311057703129702</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1670413965179887</v>
+        <v>0.1673069256976734</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>22199</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15807</v>
+        <v>16088</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>31370</v>
+        <v>31212</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.0546725858504115</v>
+        <v>0.05467258585041149</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03893173507907138</v>
+        <v>0.03962411422581463</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07726091557630962</v>
+        <v>0.07687082836940688</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -2912,19 +2912,19 @@
         <v>23492</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>16671</v>
+        <v>17379</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>30883</v>
+        <v>31687</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.05356541241694281</v>
+        <v>0.0535654124169428</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03801213245067712</v>
+        <v>0.03962601789617985</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07041840175730039</v>
+        <v>0.07225018081897894</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>70</v>
@@ -2933,19 +2933,19 @@
         <v>45691</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>35842</v>
+        <v>35542</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>56686</v>
+        <v>57370</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05409767029130812</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04243692776944365</v>
+        <v>0.04208141132459554</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06711633424740381</v>
+        <v>0.0679263311413757</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>18711</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12579</v>
+        <v>12400</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>27387</v>
+        <v>27046</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.0460833286891124</v>
+        <v>0.04608332868911239</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03098067406534211</v>
+        <v>0.03053954540983863</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06745061092100457</v>
+        <v>0.06661045328112347</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>36</v>
@@ -2983,19 +2983,19 @@
         <v>20336</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14407</v>
+        <v>14516</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27590</v>
+        <v>28133</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04636800822928514</v>
+        <v>0.04636800822928513</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03285106257421198</v>
+        <v>0.0330985248517452</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06290868087985782</v>
+        <v>0.06414657413244247</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>61</v>
@@ -3004,19 +3004,19 @@
         <v>39047</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30366</v>
+        <v>30824</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>50019</v>
+        <v>50483</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04623115259100186</v>
+        <v>0.04623115259100187</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03595320233304942</v>
+        <v>0.03649616974267309</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05922298241458426</v>
+        <v>0.05977219049126008</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>237646</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>220978</v>
+        <v>222236</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>254436</v>
+        <v>254361</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.585295931826012</v>
+        <v>0.5852959318260119</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5442433796838549</v>
+        <v>0.5473440458451265</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6266478100104351</v>
+        <v>0.6264641143248283</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>455</v>
@@ -3054,19 +3054,19 @@
         <v>231294</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>217235</v>
+        <v>216104</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>247340</v>
+        <v>246163</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.5273847786691124</v>
+        <v>0.5273847786691122</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4953283453940686</v>
+        <v>0.4927492380014548</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5639714623024618</v>
+        <v>0.561287936716782</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>793</v>
@@ -3075,19 +3075,19 @@
         <v>468940</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>444734</v>
+        <v>445903</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>493206</v>
+        <v>491014</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.5552247415417469</v>
+        <v>0.5552247415417471</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5265642201336055</v>
+        <v>0.52794880152535</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5839556744308398</v>
+        <v>0.581360355859477</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>92580</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>78777</v>
+        <v>79443</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>107619</v>
+        <v>107031</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2280148635615451</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1940201967591914</v>
+        <v>0.195659291792693</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2650527281853114</v>
+        <v>0.2636060832066711</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>201</v>
@@ -3125,19 +3125,19 @@
         <v>112495</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>99359</v>
+        <v>98709</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>126387</v>
+        <v>125889</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2565045283997096</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.226553357007292</v>
+        <v>0.2250706911599488</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.288181203762732</v>
+        <v>0.2870453339566052</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>327</v>
@@ -3146,19 +3146,19 @@
         <v>205075</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>186379</v>
+        <v>183961</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>225357</v>
+        <v>225652</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2428085274031588</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2206728148124762</v>
+        <v>0.2178095344756561</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2668226059102062</v>
+        <v>0.2671713804322548</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>34891</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>26791</v>
+        <v>26112</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>47002</v>
+        <v>45178</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.08593329007291912</v>
+        <v>0.08593329007291911</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06598341825011447</v>
+        <v>0.06431052211044314</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1157618989095968</v>
+        <v>0.1112685879510255</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>95</v>
@@ -3196,19 +3196,19 @@
         <v>50952</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>40652</v>
+        <v>42175</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>60431</v>
+        <v>62666</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1161772722849502</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09269263437996259</v>
+        <v>0.09616484958415721</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1377918877426164</v>
+        <v>0.1428878168947316</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>144</v>
@@ -3217,19 +3217,19 @@
         <v>85843</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>72883</v>
+        <v>73982</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>99167</v>
+        <v>101340</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1016379081727843</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08629363648734924</v>
+        <v>0.08759489251653406</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1174132432743435</v>
+        <v>0.1199866463684413</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>11906</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7098</v>
+        <v>7178</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18896</v>
+        <v>19443</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03863331027455435</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02303268444924582</v>
+        <v>0.02329198835609822</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0613158492737307</v>
+        <v>0.06308999501539031</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>18</v>
@@ -3342,19 +3342,19 @@
         <v>10361</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5837</v>
+        <v>6117</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16019</v>
+        <v>16067</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02239784066367034</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01261690273791927</v>
+        <v>0.01322371221303316</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0346276648297556</v>
+        <v>0.03473297673108586</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>35</v>
@@ -3363,19 +3363,19 @@
         <v>22267</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>16351</v>
+        <v>15624</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>31785</v>
+        <v>31206</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02888917190777132</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0212140626547835</v>
+        <v>0.02027013592012441</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04123714276440749</v>
+        <v>0.04048650225305197</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>10634</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6079</v>
+        <v>6460</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17685</v>
+        <v>17822</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03450505745748612</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01972656876668924</v>
+        <v>0.02096154738889893</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05738773258892565</v>
+        <v>0.05782977660735641</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -3413,19 +3413,19 @@
         <v>7234</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4103</v>
+        <v>4130</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11880</v>
+        <v>11703</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01563811025582063</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.008869121621807417</v>
+        <v>0.008926840722869136</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02568067505389211</v>
+        <v>0.02529885629745935</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>28</v>
@@ -3434,19 +3434,19 @@
         <v>17868</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>11909</v>
+        <v>12508</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>25551</v>
+        <v>26224</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02318156953271594</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01545019475966445</v>
+        <v>0.01622789536224555</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03314955720478144</v>
+        <v>0.03402333585320412</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>158404</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>144053</v>
+        <v>143625</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>174089</v>
+        <v>172972</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5140092209257184</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4674397615586146</v>
+        <v>0.4660522508428945</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5649063866872647</v>
+        <v>0.5612809444369464</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>312</v>
@@ -3484,19 +3484,19 @@
         <v>153311</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>138976</v>
+        <v>137267</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>167464</v>
+        <v>167253</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3314121801392343</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3004246278641575</v>
+        <v>0.2967287919583604</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3620050793207604</v>
+        <v>0.3615501966421317</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>553</v>
@@ -3505,19 +3505,19 @@
         <v>311716</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>291522</v>
+        <v>291329</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>333691</v>
+        <v>333890</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4044188688489394</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.378219683717591</v>
+        <v>0.3779694507081748</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4329301610067853</v>
+        <v>0.4331876242309766</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>93985</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>81557</v>
+        <v>79792</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>108133</v>
+        <v>107853</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3049724751123753</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2646467400854022</v>
+        <v>0.2589176328441734</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.350883592805618</v>
+        <v>0.3499756639927165</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>356</v>
@@ -3555,19 +3555,19 @@
         <v>201889</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>187093</v>
+        <v>187925</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>218820</v>
+        <v>220976</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4364226021732882</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.40443804350602</v>
+        <v>0.4062365801048438</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4730218375583919</v>
+        <v>0.4776837167637547</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>485</v>
@@ -3576,19 +3576,19 @@
         <v>295874</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>273371</v>
+        <v>275545</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>316624</v>
+        <v>318900</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3838656797508214</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3546703421662166</v>
+        <v>0.3574915277672674</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4107873048973411</v>
+        <v>0.4137399868369315</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>33246</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>25182</v>
+        <v>24829</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>43443</v>
+        <v>43300</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1078799362298658</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.08171307133180418</v>
+        <v>0.08056742992992046</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1409689829966295</v>
+        <v>0.1405037054365887</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>179</v>
@@ -3626,19 +3626,19 @@
         <v>89804</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>77884</v>
+        <v>77937</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>102706</v>
+        <v>104047</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1941292667679864</v>
+        <v>0.1941292667679865</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1683603631608165</v>
+        <v>0.1684765766564686</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2220197474597055</v>
+        <v>0.224917040218765</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>234</v>
@@ -3647,19 +3647,19 @@
         <v>123050</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>108188</v>
+        <v>107064</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>139344</v>
+        <v>139426</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1596447099597519</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1403634249907522</v>
+        <v>0.1389049687518033</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1807843358857327</v>
+        <v>0.1808912954431835</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>427915</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>379960</v>
+        <v>383514</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>478699</v>
+        <v>479530</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1214703423606737</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.107857704552123</v>
+        <v>0.1088662926373118</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1358861527418696</v>
+        <v>0.1361221434341268</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>330</v>
@@ -3772,19 +3772,19 @@
         <v>261409</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>231991</v>
+        <v>233550</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>292113</v>
+        <v>292374</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07015746672110378</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06226221969139514</v>
+        <v>0.06268054944689727</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07839794003743461</v>
+        <v>0.07846783514504954</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>661</v>
@@ -3793,19 +3793,19 @@
         <v>689324</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>639884</v>
+        <v>634244</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>747898</v>
+        <v>749047</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.0950945671108067</v>
+        <v>0.09509456711080669</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.08827415246268717</v>
+        <v>0.08749605684962999</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1031750277168135</v>
+        <v>0.1033336323077529</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>447172</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>401941</v>
+        <v>399347</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>503278</v>
+        <v>497395</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1269366199535153</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1140971520531434</v>
+        <v>0.1133607545973292</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1428632890867667</v>
+        <v>0.1411934358741474</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>279</v>
@@ -3843,19 +3843,19 @@
         <v>233617</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>205673</v>
+        <v>207486</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>265222</v>
+        <v>264955</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06269857075234514</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05519895965874422</v>
+        <v>0.05568559850910799</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.07118095212005766</v>
+        <v>0.07110916507744038</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>619</v>
@@ -3864,19 +3864,19 @@
         <v>680788</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>620995</v>
+        <v>624745</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>737660</v>
+        <v>740212</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09391706439164808</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08566837758939935</v>
+        <v>0.08618569003645581</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1017627213352392</v>
+        <v>0.1021147397255646</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>1469402</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1403545</v>
+        <v>1405527</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1532654</v>
+        <v>1533128</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4171127348377002</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3984182371537621</v>
+        <v>0.3989807553951411</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4350677855312697</v>
+        <v>0.4352022226222663</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2575</v>
@@ -3914,19 +3914,19 @@
         <v>1722176</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1661158</v>
+        <v>1665854</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1773681</v>
+        <v>1775295</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4622010736550757</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4458250902347469</v>
+        <v>0.4470855130980252</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4760241227168263</v>
+        <v>0.4764573292612923</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>4110</v>
@@ -3935,19 +3935,19 @@
         <v>3191578</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3108457</v>
+        <v>3102769</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>3282247</v>
+        <v>3273620</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.4402889820507851</v>
+        <v>0.440288982050785</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4288222280052479</v>
+        <v>0.4280375020228891</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4527970676397942</v>
+        <v>0.4516069968208009</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>650676</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>597711</v>
+        <v>602206</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>698948</v>
+        <v>703750</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1847044929192632</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.169669606081482</v>
+        <v>0.1709456076333942</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.198407412707404</v>
+        <v>0.1997705309889588</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1193</v>
@@ -3985,19 +3985,19 @@
         <v>809626</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>764111</v>
+        <v>764441</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>857817</v>
+        <v>850253</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2172890185050985</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2050736793594096</v>
+        <v>0.2051623021777957</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2302226401030979</v>
+        <v>0.2281926842052802</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1848</v>
@@ -4006,19 +4006,19 @@
         <v>1460302</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1395658</v>
+        <v>1392999</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1526991</v>
+        <v>1526251</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.2014535468898962</v>
+        <v>0.2014535468898961</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1925357307908203</v>
+        <v>0.1921690020033742</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2106535381496631</v>
+        <v>0.2105515598696233</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>527629</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>482016</v>
+        <v>482447</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>575733</v>
+        <v>578533</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1497758099288477</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1368276865290474</v>
+        <v>0.1369500234919536</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1634308247896932</v>
+        <v>0.164225480026551</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>974</v>
@@ -4056,19 +4056,19 @@
         <v>699204</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>660825</v>
+        <v>654443</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>744330</v>
+        <v>739326</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.1876538703663768</v>
+        <v>0.1876538703663767</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1773535323873527</v>
+        <v>0.1756408747657231</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1997647906182012</v>
+        <v>0.1984219731086567</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1480</v>
@@ -4077,19 +4077,19 @@
         <v>1226833</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1171029</v>
+        <v>1163135</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1298674</v>
+        <v>1292946</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1692458395568641</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.161547407840105</v>
+        <v>0.1604583946248644</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1791564233590598</v>
+        <v>0.1783662510435417</v>
       </c>
     </row>
     <row r="51">
